--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
@@ -122,9 +122,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -206,12 +207,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,6 +226,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -242,1162 +251,1163 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="C42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="0" t="n">
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1405,7 +1415,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
@@ -122,10 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -207,16 +206,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,1162 +247,1162 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="n">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="n">
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="n">
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="n">
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="n">
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="n">
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="n">
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="33">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">CIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">POA</t>
@@ -246,8 +249,8 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,9 +289,8 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,14 +301,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,14 +318,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,14 +335,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +349,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -358,9 +357,8 @@
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,17 +366,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,17 +383,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +400,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -412,9 +408,8 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,17 +417,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,17 +434,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -466,9 +459,8 @@
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,17 +468,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -502,9 +493,8 @@
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,17 +502,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,17 +519,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,17 +536,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -574,9 +561,8 @@
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,17 +570,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,17 +587,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -628,9 +612,8 @@
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,17 +621,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,17 +638,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -682,9 +663,8 @@
       <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,17 +672,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -718,9 +697,8 @@
       <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,17 +706,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,17 +723,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,17 +740,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,17 +757,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
@@ -808,9 +782,8 @@
       <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,17 +791,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,17 +808,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,17 +825,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
@@ -880,9 +850,8 @@
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,17 +859,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,17 +876,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,17 +893,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
@@ -952,9 +918,8 @@
       <c r="D39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,17 +927,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,17 +944,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
@@ -1006,9 +969,8 @@
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,17 +978,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,17 +995,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,17 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,17 +1029,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
@@ -1096,9 +1054,8 @@
       <c r="D47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,17 +1063,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,17 +1080,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,17 +1097,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
@@ -1168,9 +1122,8 @@
       <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,17 +1131,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,17 +1148,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,17 +1165,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>7</v>
@@ -1240,9 +1190,8 @@
       <c r="D55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,17 +1199,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,17 +1216,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,17 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,17 +1250,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,17 +1267,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,17 +1284,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,17 +1301,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,17 +1318,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,17 +1335,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/applicant_valid_document.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">eng</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
+    <t xml:space="preserve">A001</t>
   </si>
   <si>
     <t xml:space="preserve">POI</t>
@@ -70,28 +70,28 @@
     <t xml:space="preserve">CRN</t>
   </si>
   <si>
-    <t xml:space="preserve">002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009</t>
+    <t xml:space="preserve">A002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A009</t>
   </si>
   <si>
     <t xml:space="preserve">POE</t>
@@ -100,25 +100,25 @@
     <t xml:space="preserve">COE</t>
   </si>
   <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016</t>
+    <t xml:space="preserve">A010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A016</t>
   </si>
 </sst>
 </file>
@@ -249,14 +249,14 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1350,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
